--- a/biology/Médecine/Syndrome_du_nez_vide/Syndrome_du_nez_vide.xlsx
+++ b/biology/Médecine/Syndrome_du_nez_vide/Syndrome_du_nez_vide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Empty nose syndrome » est le nom donné à la maladie, en 1994, par le docteur Eugene Kern de Rochester (Minnesota, Etats-Unis), un ORL spécialiste à la clinique Mayo.
 Le syndrome du nez vide (SNV), de l’anglais : Empty Nose Syndrome (ENS), est un état qui apparaît lorsqu'une quantité excessive de tissu nasal producteur de mucus (les cornets ou turbinates en anglais) a été chirurgicalement enlevée du nez ou endommagée, laissant un vide ou des dommages trop importants dans les cavités nasales. Une chirurgie conservatrice peut également mener au syndrome du nez vide car il n'y a pas de standard, ni études, sur la quantité du cornet qui peut être réséquée avant de développer le Syndrome du Nez Vide.
@@ -513,9 +525,11 @@
           <t>Opérations chirurgicales pouvant mener au Syndrome du Nez Vide</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le syndrome de nez vide peut être causé aussi bien par une chirurgie nasale mineure que majeure[1],[2],[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de nez vide peut être causé aussi bien par une chirurgie nasale mineure que majeure : 
 intervention majeure :  turbinectomie (ou amenuisement des cornets, ou encore conchotomie) , turbinoplastie
 intervention mineure :  cautérisation, cryochirurgie (en), thérapie laser (en), résection sous-mucosale, radiofréquence.
 La turbinectomie est la chirurgie de résection totale ou partielle des cornets traitant la portion muqueuse et osseuse.
@@ -523,8 +537,43 @@
 La radiofréquence agit sur le tissu muqueux en profondeur pour entraîner sa rétraction.
 La cautérisation est utilisée pour diminuer les épistaxis (saignements de nez).
 Ces opérations sont pratiquées par un chirurgien oto-rhino-laryngologiste (ORL) ou un chirurgien plasticien pour différentes raisons. La raison la plus fréquente est le gonflement des cornets de façon chronique (hypertrophie des cornets) qui bloquent trop les voies respiratoires nasales.
-Cause de l'hypertrophie turbinale
-Les causes les plus répandues de gonflement ou sur-croissance des cornets (hypertrophie turbinale) sont les suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Opérations chirurgicales pouvant mener au Syndrome du Nez Vide</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cause de l'hypertrophie turbinale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les causes les plus répandues de gonflement ou sur-croissance des cornets (hypertrophie turbinale) sont les suivantes :
 Exposition trop forte à la poussière, à la fumée et autres sources d'irritations aériennes ;
 Sinusite chronique ;
 Déformation structurelle nasale, cloison nasale (septum) déviée ;
@@ -535,85 +584,166 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étiologie
-La quantité de muqueuse réséquée n’est pas forcément en cause et on ne sait pas à l’heure actuelle prédire le risque de développer un SNV[4].
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La quantité de muqueuse réséquée n’est pas forcément en cause et on ne sait pas à l’heure actuelle prédire le risque de développer un SNV.
 Lorsqu'une quantité excessive des cornets est ôtée ou endommagée, le nez perd ses capacités à convenablement pressuriser, diriger, tempérer, humidifier, filtrer, sentir et détecter le flux d'air inspiré. La synchronisation respiratoire naturelle entre le nez, la bouche et les poumons est également perturbée.
 Le syndrome du nez vide apparaît généralement dans un délai d'un an après l'intervention chirurgicale. Il peut aussi apparaître directement après l'opération.
-Le patient souffrant désormais du syndrome du nez vide est constamment essoufflé à cause de l'« obstruction paradoxale », son sommeil devient très superficiel et beaucoup développent une apnée de sommeil. Bien souvent, il aura besoin de médicaments comme les benzodiazépines pour dormir[5].
+Le patient souffrant désormais du syndrome du nez vide est constamment essoufflé à cause de l'« obstruction paradoxale », son sommeil devient très superficiel et beaucoup développent une apnée de sommeil. Bien souvent, il aura besoin de médicaments comme les benzodiazépines pour dormir.
 Le patient est déprimé ou anxieux quasiment en permanence et évite les interactions sociales. La douleur et brûlures provenant des sinus sont parfois également un problème.
-L'obstruction paradoxale ou manque de sensation d'air
-L'obstruction paradoxale est composée de trois facteurs principaux :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'obstruction paradoxale ou manque de sensation d'air</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'obstruction paradoxale est composée de trois facteurs principaux :
 le flux d'air intra-nasal n'est plus laminaire mais turbulent, avec une perte de charge dans le débit d'air ;
 une sensation d'obstruction est créée par le manque de pression sur les récepteurs "mécaniques" de la muqueuse nasale ;
 les thermorécepteurs, également nommés TRPM8, sont chargés de détecter la différence de température entre l'air et la muqueuse nasale et de donner l'ordre aux cornets de gonfler pour réchauffer l'air entrant. Leur défaillance entraîne une absence de sensation d'air ou une sensation d'air glacial.
 On la dit paradoxale car c’est une sensation d’obstruction nasale, malgré le fait que le nez ne soit pas physiquement obstrué. En conséquence de cette « obstruction paradoxale », les personnes souffrant du syndrome du nez vide souffrent d’insomnie sévère chronique et de fatigue chronique. Ils souffrent aussi de sécheresse nasale qui cause des croûtes dans le nez.
-Syndrome du nez vide et rhinite atrophique
-L'évolution naturelle du syndrome du nez vide se fait parfois vers une rhinite atrophique, caractérisée par la dégénérescence du tissu et du cartilage nasal, des cavités nasales évasées et un dysfonctionnement total de la muqueuse nasale restante. Cette rhinite est alors dite « secondaire », car conséquente d'un état préexistant.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Physiopathologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Syndrome du nez vide et rhinite atrophique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'évolution naturelle du syndrome du nez vide se fait parfois vers une rhinite atrophique, caractérisée par la dégénérescence du tissu et du cartilage nasal, des cavités nasales évasées et un dysfonctionnement total de la muqueuse nasale restante. Cette rhinite est alors dite « secondaire », car conséquente d'un état préexistant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Symptomatologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Symptômes physiques
-Dyspnée (sensation d’étouffement) ou perte de l'automatisme respiratoire[6]
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Symptômes physiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dyspnée (sensation d’étouffement) ou perte de l'automatisme respiratoire
 Absence de sensation d'air ou sensation d'air glacial, de vide nasal
 Dysfonctionnement du système nerveux autonome
 Douleurs et infections nasales à répétition
 Fatigue intense, asthénie
 Douleurs névralgiques de la face et du front, pouvant s’étendre jusqu’au dos
 Brûlures nasales à l'inspiration
-Sécheresse nasale[7] et croûtes
+Sécheresse nasale et croûtes
 Sécheresse oculaire
 Rhinorrhée postérieure et difficultés pour se moucher
 Essoufflement permanent
@@ -621,88 +751,201 @@
 Diminution ou perte du goût
 Tachycardie ou syndrome du STOP
 Troubles du sommeil par décompensation d'un syndrome d'apnée du sommeil sous-jacent
-Syndrome d'hyperventilation : une étude a trouvé que 77% des gens qui ont le syndrome du nez vide ont un syndrome d'hyperventilation[8]
-Effondrement des valves nasales[9]
-Pneumatisation des sinus et des cornets
-Symptômes psychiques
-Crises d'angoisse, anxiété exacerbée, irritabilité
-Dépression intense[10], causée par la perte de la qualité de vie
+Syndrome d'hyperventilation : une étude a trouvé que 77% des gens qui ont le syndrome du nez vide ont un syndrome d'hyperventilation
+Effondrement des valves nasales
+Pneumatisation des sinus et des cornets</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Symptomatologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Symptômes psychiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Crises d'angoisse, anxiété exacerbée, irritabilité
+Dépression intense, causée par la perte de la qualité de vie
 Insomnies, manque de sommeil important
 Manque de compréhension de l'entourage conduisant à un repli sur soi
 Pensées suicidaires</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Témoignages de malades</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Témoignage vidéo
-François[11]
-Ingrid Devillepoix[12]
-Megyn Kelly[13]
-Mike Mellow[14]
-Témoignage écrit
-Laurence Chatevaire pour L'Obs[15]
-Brett Helling dans Slate[16]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Témoignage vidéo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>François
+Ingrid Devillepoix
+Megyn Kelly
+Mike Mellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Témoignages de malades</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Témoignage écrit</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Laurence Chatevaire pour L'Obs
+Brett Helling dans Slate</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traitement médical
-Dans un premier temps, un traitement médical est recommandé, avec des lavages pluriquotidiens des fosses nasales au sérum physiologique.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traitement médical</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un premier temps, un traitement médical est recommandé, avec des lavages pluriquotidiens des fosses nasales au sérum physiologique.
 Les humidificateurs peuvent être utilisés pour soulager la sécheresse nasale, et; en cas de respiration perturbatrice pour le sommeil, un appareil à pressurisation d'air avec humidificateur intégré peut être employé.
 L'objectif est de protéger la muqueuse et l'aider à remplir son rôle. Pour certains malades, tous les moyens sont bons pour atténuer les symptômes : humidificateur, masques, filtres et foulards, inhalations, huiles et sprays nasaux.
 Aucun traitement médical ne supprime totalement les symptômes du syndrome du nez vide.
-Traitement chirurgical
-Dans certains cas, la réalisation d'implants de biomatériaux au niveau du septum nasal peut améliorer les symptômes fonctionnels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Traitement chirurgical</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans certains cas, la réalisation d'implants de biomatériaux au niveau du septum nasal peut améliorer les symptômes fonctionnels.
 Certains ORL, à travers le monde, offrent des traitements qui permettent d’alléger les symptômes, sans les faire disparaître complètement : 
 implants de biomatériaux, bio-oss, acrylique
 implants de cartilage auriculaire sur le septum nasal
@@ -716,100 +959,106 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Reconnaissance de la maladie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome du nez vide et ses symptômes invalidants sont en cours d'étude par la Haute Autorité de Santé depuis 2020[17].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome du nez vide et ses symptômes invalidants sont en cours d'étude par la Haute Autorité de Santé depuis 2020.
 Depuis le 15 décembre 2022, la HAS  a reconnu le syndrome du nez vide, ce qui fait de la France un pays précurseur dans la prise en charge des malades.[réf. nécessaire]
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Célébrités touchées par la maladie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médecin personnel de Michael Jackson évoque son cas dans une vidéo[18]; à la suite des nombreuses rhinoplasties subies par le chanteur, ce dernier aurait déclaré un Syndrome du Nez Vide, maladie qui le poussait à prendre de puissants somnifères pour trouver le sommeil.
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médecin personnel de Michael Jackson évoque son cas dans une vidéo; à la suite des nombreuses rhinoplasties subies par le chanteur, ce dernier aurait déclaré un Syndrome du Nez Vide, maladie qui le poussait à prendre de puissants somnifères pour trouver le sommeil.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_nez_vide</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Citations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Société Rhinologique Américaine[19] :
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Société Rhinologique Américaine :
 « ...La suppression excessive de tissu turbinal peut conduire au SNV. Une résection excessive peut amener des croûtes, saignement, difficulté respiratoire (souvent la sensation paradoxale d'obstruction), infections récurrentes, odeur nasale, douleur et souvent dépression clinique. Dans une étude, le début des symptômes se produisit plus de 1 an après les turbinectomies. »
-Docteur E.B. Kern (ex-président des Sociétés Rhinologiques Internationales et Américaines)[20] :
+Docteur E.B. Kern (ex-président des Sociétés Rhinologiques Internationales et Américaines) :
 « La résection d'un cornet entier à cause d'un problème bénin est fortement déconseillée car sectionner un cornet peut produire une atrophie nasale et une condition misérable pour la personne. Malheureusement l'auteur de cet article voit encore de telles personnes dans les cabinets; ces personnes sont des estropiées du nez. »
-C'est en réexaminant des groupes de patients qui avaient subi une turbinectomie inférieure totale que Moore et al. découvrirent le retentissement fonctionnel du syndrome du nez vide[21] :
+C'est en réexaminant des groupes de patients qui avaient subi une turbinectomie inférieure totale que Moore et al. découvrirent le retentissement fonctionnel du syndrome du nez vide :
 « La turbinectomie inférieure totale a été proposée comme un traitement contre l'obstruction chronique des voies respiratoires nasales réfractaire à d'autres méthodes de traitement plus classiques. Elle a été régulièrement critiquée à cause de ses effets secondaires sur la physiologie nasale. Dans cette étude, les patients qui avaient précédemment suvi une turbinectomie inférieure totale ont été évalués à l'aide d'un questionnaire très détaillé. Elle confirme que la turbinectomie inférieure totale entraîne une morbidité significative et devrait être condamnée. »
 </t>
         </is>
